--- a/biology/Botanique/Germaine_Cousin-Zermatten/Germaine_Cousin-Zermatten.xlsx
+++ b/biology/Botanique/Germaine_Cousin-Zermatten/Germaine_Cousin-Zermatten.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Germaine Cousin-Zermatten, née en Suisse le 22 avril 1925 à Saint-Martin dans le canton du Valais, est une herboriste et autrice suisse qui — à la suite de recherches personnelles s'évertuant à compiler un savoir ancestral uniquement transmis par voie orale — a rédigé plusieurs ouvrages consacrés aux propriétés phytothérapeutiques des plantes médicinales situées dans la région du Val d'Hérens[1],[2],[3],[4],[5],[6],[7],[8],[9],[10],[11],[12],[13].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Germaine Cousin-Zermatten, née en Suisse le 22 avril 1925 à Saint-Martin dans le canton du Valais, est une herboriste et autrice suisse qui — à la suite de recherches personnelles s'évertuant à compiler un savoir ancestral uniquement transmis par voie orale — a rédigé plusieurs ouvrages consacrés aux propriétés phytothérapeutiques des plantes médicinales situées dans la région du Val d'Hérens.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Germaine Cousin-Zermatten, Recettes santé de nos grand-mères, Cabédita, coll. « Archives vivantes », 1995, 184 p. (ISBN 2882952430, EAN 9782882952431)
 Germaine Cousin-Zermatten, Cataplasmes, compresses: bains de pieds et bains de mains : Recueil de recettes essentiellement constituées à base de plantes pour réaliser cataplasmes, pommades, compresses et ainsi soulager de nombreux maux (rages de dents, sinusites, crises de foie, toux, etc.), Cabédita, coll. « Regard et connaissance », 2005, 61 p. (ISBN 2882954476, EAN 9782882954473, OCLC 427916867)
